--- a/headshots.xlsx
+++ b/headshots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowingcanadaaviron.sharepoint.com/sites/HP-Leadership/Shared Documents/SSSM/General/Biomechanics/Peach data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowingcanadaaviron.sharepoint.com/sites/HP-Leadership/Shared Documents/SSSM/General/Data Solutions/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{5D3FD2BC-46CE-47E1-A3E7-4AD30095A707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C2C476D-5893-1042-A44D-F3F5412F4C87}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{5D3FD2BC-46CE-47E1-A3E7-4AD30095A707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26DAEFA5-51F3-EB4E-89DE-FACA02B9B91D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="14640" windowHeight="20040" xr2:uid="{F4EB54AD-B4EB-45A5-9D28-A9266595B11F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>https://rowingcanada.org/uploads/2018/11/Avalon-Wasteneys-Rowing-Canada1269_8x8-300x400.jpg</t>
   </si>
@@ -204,16 +204,60 @@
   </si>
   <si>
     <t>https://rowingcanada.org/uploads/2019/06/Will-Crothers-Rowing-Canada-Sep-1-2022-%C2%A9KevinLightPhoto-_RL_8688-600x800.jpg</t>
+  </si>
+  <si>
+    <t>Grace Vanden Broek</t>
+  </si>
+  <si>
+    <t>https://images.squarespace-cdn.com/content/v1/5f63780dbc8d16716cca706a/1604523297465-6BAIW9AOVGRI7PARBCH3/rowing-canada-new-logo.jpg</t>
+  </si>
+  <si>
+    <t>Axel Ewashko</t>
+  </si>
+  <si>
+    <t>Nicole Cusack</t>
+  </si>
+  <si>
+    <t>Alizee Brien</t>
+  </si>
+  <si>
+    <t>Mitchell Rodgers</t>
+  </si>
+  <si>
+    <t>Brenna Randall</t>
+  </si>
+  <si>
+    <t>https://rowingcanada.org/uploads/2018/11/Laura-Court-Rowing-Canada-Sep-1-2022-%C2%A9KevinLightPhoto-_RL_8664A-1920x1869.jpg</t>
+  </si>
+  <si>
+    <t>Laura Court</t>
+  </si>
+  <si>
+    <t>Trevor Jones</t>
+  </si>
+  <si>
+    <t>Alexis Cronk</t>
+  </si>
+  <si>
+    <t>Piper Battersby</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,13 +280,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -575,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C9217F-3CA5-49E1-AC45-AE6F31B9AE25}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -807,21 +854,98 @@
         <v>55</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{DF788967-0E5D-054C-AAE7-79437EA72EE8}"/>
+    <hyperlink ref="B34" r:id="rId2" xr:uid="{B1FEA1CA-DEBB-8345-96B5-5213C0355DD6}"/>
+    <hyperlink ref="B37" r:id="rId3" xr:uid="{9FE023B4-2428-5243-9475-6487CD363BE0}"/>
+    <hyperlink ref="B38" r:id="rId4" xr:uid="{8C7BAB7D-5B28-654F-BA03-F90C7501B9F3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A1B54E1003C114099181DAD75950C23" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c9aece04ebb4e02eedcbe43bbed361">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6d3cb411-e331-4992-a011-a0eac7a266f1" xmlns:ns3="c5b02602-94a9-4f60-9f86-a36de094f273" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03a4b324bae3ca6112de879088074e07" ns2:_="" ns3:_="">
     <xsd:import namespace="6d3cb411-e331-4992-a011-a0eac7a266f1"/>
@@ -1070,6 +1194,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1082,14 +1215,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10DE6DE7-003C-4601-BBE3-F683E74B0EC0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A5AD15D-421C-4F13-BD1E-3A1F41CD00B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1108,19 +1233,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10DE6DE7-003C-4601-BBE3-F683E74B0EC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7FD08C4-65E8-42C7-9CD0-038549962267}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6d3cb411-e331-4992-a011-a0eac7a266f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="c5b02602-94a9-4f60-9f86-a36de094f273"/>
-    <ds:schemaRef ds:uri="6d3cb411-e331-4992-a011-a0eac7a266f1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>